--- a/p_values_Decision_Tree_vs_Logistic_Regression.xlsx
+++ b/p_values_Decision_Tree_vs_Logistic_Regression.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.060338550397731e-18</v>
+        <v>1.072601273983791e-14</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.862063899730874e-16</v>
+        <v>1.236910496096729e-12</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.587127719619791e-17</v>
+        <v>9.32647211947595e-14</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.869808060790032e-20</v>
+        <v>3.576030427727783e-20</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.857754202064697e-19</v>
+        <v>9.744832566675057e-21</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.262719430454252e-05</v>
+        <v>0.1173980360181408</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.834541790735131e-05</v>
+        <v>0.005650476694566525</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.000383106996861e-05</v>
+        <v>2.516935222880321e-06</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.234548915119903e-14</v>
+        <v>1.329767977140459e-11</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004331704201171733</v>
+        <v>0.003539414475365723</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.349062283263341e-08</v>
+        <v>8.422946281056946e-06</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.057249073839491e-08</v>
+        <v>1.671585734169768e-05</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.80524754107957e-07</v>
+        <v>5.682527801603908e-05</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +580,505 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.72947118067474e-12</v>
+        <v>1.460581613623769e-11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.459468995822741e-12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2307220556685683</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1852078607339597</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.503699170043685e-12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.53836817384187e-13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.632532423634105e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.003184616493749189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.000620961019448488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.005708032435451612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09516478198838337</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.925121569226898e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.784533493850912e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.717051625111607e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.56834788956328e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.636941358662003e-11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.789093463445665e-16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.439245749472651e-18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.518164702137825e-17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.051585198510696e-16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.829203203401777e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.904776659534245e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.130921454879111e-08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8.831775916100523e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.39631776197188e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7.316513978250694e-12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.664410959389985e-10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.854188690109598e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.299109706098638e-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.991182348807136e-29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.991182348807136e-29</v>
       </c>
     </row>
   </sheetData>
